--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Zoran.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template - Zoran.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="24220" windowWidth="24200" windowHeight="13220" activeTab="2"/>
+    <workbookView xWindow="7635" yWindow="24225" windowWidth="24195" windowHeight="13215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>page formatting</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>referred to Lloyd</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>for future</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no but can just be codeableConcept.text</t>
+  </si>
+  <si>
+    <t>deferred</t>
   </si>
 </sst>
 </file>
@@ -826,35 +850,35 @@
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -862,12 +886,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="266">
+    <row r="7" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="98">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,14 +918,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="13.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="28">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -924,25 +948,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="43.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="22.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="43.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="28">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -961,8 +986,11 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -981,8 +1009,11 @@
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="56">
+      <c r="G2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
@@ -995,8 +1026,11 @@
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="42">
+      <c r="G3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1009,8 +1043,11 @@
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28">
+      <c r="G4" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1026,8 +1063,11 @@
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="42">
+      <c r="G6" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1040,8 +1080,11 @@
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="56">
+      <c r="G7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1057,8 +1100,11 @@
       <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="28">
+      <c r="G8" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1077,8 +1123,11 @@
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28">
+      <c r="G9" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1094,8 +1143,11 @@
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28">
+      <c r="G10" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1108,8 +1160,11 @@
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28">
+      <c r="G11" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1125,8 +1180,11 @@
       <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="28">
+      <c r="G12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
@@ -1139,8 +1197,11 @@
       <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="98">
+      <c r="G13" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1153,13 +1214,16 @@
       <c r="F14" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28">
+      <c r="G14" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>59</v>
       </c>
@@ -1175,8 +1239,11 @@
       <c r="F18" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="42">
+      <c r="G18" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -1189,8 +1256,11 @@
       <c r="F19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="28">
+      <c r="G19" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1206,8 +1276,11 @@
       <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="28">
+      <c r="G20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -1220,8 +1293,11 @@
       <c r="F21" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="42">
+      <c r="G21" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>71</v>
       </c>
@@ -1231,8 +1307,11 @@
       <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="28">
+      <c r="G22" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1242,8 +1321,11 @@
       <c r="F23" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>80</v>
       </c>
@@ -1259,8 +1341,11 @@
       <c r="F24" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="28">
+      <c r="G24" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
@@ -1276,8 +1361,11 @@
       <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="28">
+      <c r="G25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
@@ -1293,8 +1381,11 @@
       <c r="F26" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="28">
+      <c r="G26" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
@@ -1307,8 +1398,11 @@
       <c r="F27" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="28">
+      <c r="G27" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>86</v>
       </c>
@@ -1321,8 +1415,11 @@
       <c r="F28" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="42">
+      <c r="G28" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
@@ -1335,8 +1432,11 @@
       <c r="F29" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="42">
+      <c r="G29" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>90</v>
       </c>
@@ -1352,8 +1452,11 @@
       <c r="F30" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="28">
+      <c r="G30" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
@@ -1366,8 +1469,11 @@
       <c r="F31" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="28">
+      <c r="G31" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>98</v>
       </c>
@@ -1383,8 +1489,11 @@
       <c r="F32" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="28">
+      <c r="G32" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
@@ -1403,8 +1512,11 @@
       <c r="F33" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="42">
+      <c r="G33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
@@ -1420,8 +1532,11 @@
       <c r="F34" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="28">
+      <c r="G34" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
@@ -1440,8 +1555,11 @@
       <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="42">
+      <c r="G35" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
@@ -1457,8 +1575,11 @@
       <c r="F36" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="42">
+      <c r="G36" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -1473,6 +1594,9 @@
       </c>
       <c r="F37" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
